--- a/Src/Data/Tables/MapDefine.xlsx
+++ b/Src/Data/Tables/MapDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" updateLinks="always"/>
   <bookViews>
-    <workbookView windowWidth="19031" windowHeight="4787" tabRatio="599"/>
+    <workbookView windowWidth="23040" windowHeight="9060" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="Elements" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>类型</t>
   </si>
@@ -44,6 +44,9 @@
     <t>小地图资源</t>
   </si>
   <si>
+    <t>背景音乐</t>
+  </si>
+  <si>
     <t>技能描述</t>
   </si>
   <si>
@@ -80,6 +83,9 @@
     <t>MiniMap</t>
   </si>
   <si>
+    <t>Music</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -95,6 +101,9 @@
     <t>zhongzhoucheng</t>
   </si>
   <si>
+    <t>bgm-town</t>
+  </si>
+  <si>
     <t>落日深林</t>
   </si>
   <si>
@@ -104,12 +113,18 @@
     <t>luorisenlin</t>
   </si>
   <si>
+    <t>bgm-map01</t>
+  </si>
+  <si>
     <t>落日森林</t>
   </si>
   <si>
     <t>Map02</t>
   </si>
   <si>
+    <t>bgm-map02</t>
+  </si>
+  <si>
     <t>熔岩之地</t>
   </si>
   <si>
@@ -117,6 +132,9 @@
   </si>
   <si>
     <t>anhunmigong</t>
+  </si>
+  <si>
+    <t>bgm-map03</t>
   </si>
 </sst>
 </file>
@@ -919,7 +937,7 @@
     <cellStyle name="好 2" xfId="59"/>
     <cellStyle name="适中 2" xfId="60"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill patternType="none"/>
@@ -1023,6 +1041,21 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
         <name val="微软雅黑"/>
         <scheme val="none"/>
         <sz val="9"/>
@@ -1045,9 +1078,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:I7" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:I7" etc:filterBottomFollowUsedRange="0"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:J7" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:J7" etc:filterBottomFollowUsedRange="0"/>
+  <tableColumns count="10">
     <tableColumn id="1" name="Key" dataDxfId="0"/>
     <tableColumn id="3" name="ID" dataDxfId="1"/>
     <tableColumn id="5" name="Name" dataDxfId="2"/>
@@ -1056,7 +1089,8 @@
     <tableColumn id="6" name="PKMode" dataDxfId="5"/>
     <tableColumn id="2" name="Resource" dataDxfId="6"/>
     <tableColumn id="7" name="MiniMap" dataDxfId="7"/>
-    <tableColumn id="98" name="Description" dataDxfId="8"/>
+    <tableColumn id="8" name="Music" dataDxfId="8"/>
+    <tableColumn id="98" name="Description" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1349,10 +1383,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.287037037037" defaultRowHeight="14.4" outlineLevelRow="6"/>
@@ -1362,11 +1396,11 @@
     <col min="4" max="5" width="19.8518518518519" style="2" customWidth="1"/>
     <col min="6" max="6" width="14.287037037037" style="2" customWidth="1"/>
     <col min="7" max="8" width="21.287037037037" style="2" customWidth="1"/>
-    <col min="9" max="9" width="32.5740740740741" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="16.287037037037" style="4"/>
+    <col min="9" max="10" width="32.5740740740741" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="16.287037037037" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1388,63 +1422,72 @@
       <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:10">
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:8">
+    <row r="4" s="1" customFormat="1" spans="1:9">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1452,25 +1495,28 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F4" s="6" t="b">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:8">
+    <row r="5" s="1" customFormat="1" spans="1:9">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1478,25 +1524,28 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="6" t="b">
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:9">
+    <row r="6" s="1" customFormat="1" spans="1:10">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1504,26 +1553,29 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" s="6" t="b">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1531,24 +1583,27 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="6" t="b">
         <v>0</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
